--- a/computationeel denken/computationeel_denken_demo.xlsx
+++ b/computationeel denken/computationeel_denken_demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthowest.sharepoint.com/sites/OHK.NMCT/Gedeelde  documenten/Cursusmateriaal/2022-2023/1MCT/Data science/Computationeel denken/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie.dewitte\workshops\workshops\computationeel denken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{E972392C-2888-4FBE-B85D-234EF29B619A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B58B8AA5-8887-4BFC-9BEE-34953B80C805}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7EF81-BC9B-46F7-8695-BB0850ACCD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16470" xr2:uid="{14BE2138-7479-4516-9E59-18CEF1A6C635}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{14BE2138-7479-4516-9E59-18CEF1A6C635}"/>
   </bookViews>
   <sheets>
     <sheet name="Alcoholverbruik" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>Correlatiecoefficient via Excel</t>
-  </si>
-  <si>
-    <t>Vaiantie sterkte</t>
-  </si>
-  <si>
-    <t>Variantie gewicht</t>
   </si>
   <si>
     <t>Covariantie via berekening</t>
@@ -96,12 +90,6 @@
     <t>Berekeningen covariantie en correlatiecoëfficiënt</t>
   </si>
   <si>
-    <t>standaardafwijking gewicht</t>
-  </si>
-  <si>
-    <t>standaardafwijking sterkte</t>
-  </si>
-  <si>
     <t>b. Welke variabele is de afhankelijke en de onafhankelijke?</t>
   </si>
   <si>
@@ -124,6 +112,18 @@
   </si>
   <si>
     <t>pearson correlatie via data analysis toolpack</t>
+  </si>
+  <si>
+    <t>Variantie alcoholverbruik</t>
+  </si>
+  <si>
+    <t>Vaiantie spiersterkte</t>
+  </si>
+  <si>
+    <t>standaardafwijking alcoholverbruik</t>
+  </si>
+  <si>
+    <t>standaardafwijking spiersterkte</t>
   </si>
 </sst>
 </file>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A927FC53-8034-410D-8F19-1CC5FF553415}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,40 +741,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="7"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" s="7"/>
@@ -793,17 +766,24 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -813,9 +793,24 @@
       <c r="C10" s="11">
         <v>10</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
@@ -1317,7 +1312,6 @@
       <c r="C52" s="11">
         <v>25.1</v>
       </c>
-      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
@@ -1340,9 +1334,6 @@
       <c r="C54" s="11">
         <v>26.3</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
@@ -1354,9 +1345,6 @@
       <c r="C55" s="11">
         <v>28.2</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
@@ -1404,40 +1392,47 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D68" s="3"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -1452,7 +1447,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -1494,19 +1489,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4145,6 +4140,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100193F48566F82E041BED911C0693359E9" ma:contentTypeVersion="47" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="47b3e88e59846bedc01524519d9becb4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e43d81d0-7a9c-4012-90dc-ae63c601f626" xmlns:ns3="e1337eef-b66e-4fde-b081-a3272a7c00ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6b21c78707ac0266063b2b8e31c87cf" ns2:_="" ns3:_="">
     <xsd:import namespace="e43d81d0-7a9c-4012-90dc-ae63c601f626"/>
@@ -4677,15 +4681,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC140EA0-BE2C-4C7B-B389-2CEEEFDC0516}">
   <ds:schemaRefs>
@@ -4698,6 +4693,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E735BB4D-3D92-452B-B28E-D37BF0F878AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{571DEE0C-F4F8-4F69-B5D2-AC1333BFF099}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4714,12 +4717,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E735BB4D-3D92-452B-B28E-D37BF0F878AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/computationeel denken/computationeel_denken_demo.xlsx
+++ b/computationeel denken/computationeel_denken_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie.dewitte\workshops\workshops\computationeel denken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7EF81-BC9B-46F7-8695-BB0850ACCD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEF6318-84AD-4CAA-8768-6BA60400D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{14BE2138-7479-4516-9E59-18CEF1A6C635}"/>
   </bookViews>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A927FC53-8034-410D-8F19-1CC5FF553415}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,9 +762,16 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
@@ -774,16 +781,24 @@
       <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -793,24 +808,9 @@
       <c r="C10" s="11">
         <v>10</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2</v>
       </c>
@@ -844,7 +844,6 @@
       <c r="C13" s="11">
         <v>12.2</v>
       </c>
-      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
@@ -4140,15 +4139,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100193F48566F82E041BED911C0693359E9" ma:contentTypeVersion="47" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="47b3e88e59846bedc01524519d9becb4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e43d81d0-7a9c-4012-90dc-ae63c601f626" xmlns:ns3="e1337eef-b66e-4fde-b081-a3272a7c00ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6b21c78707ac0266063b2b8e31c87cf" ns2:_="" ns3:_="">
     <xsd:import namespace="e43d81d0-7a9c-4012-90dc-ae63c601f626"/>
@@ -4681,6 +4671,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC140EA0-BE2C-4C7B-B389-2CEEEFDC0516}">
   <ds:schemaRefs>
@@ -4693,14 +4692,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E735BB4D-3D92-452B-B28E-D37BF0F878AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{571DEE0C-F4F8-4F69-B5D2-AC1333BFF099}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4717,4 +4708,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E735BB4D-3D92-452B-B28E-D37BF0F878AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>